--- a/hycm/translations/test2.xlsx
+++ b/hycm/translations/test2.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="109">
   <si>
     <t xml:space="preserve">page</t>
   </si>
@@ -111,6 +112,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">تقديم خدمات التداول منذ عام </t>
     </r>
@@ -137,6 +139,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">自</t>
     </r>
@@ -156,6 +159,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年起提供金融服務</t>
     </r>
@@ -196,6 +200,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">لماذا يختار </t>
     </r>
@@ -213,6 +218,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">المتداولون </t>
     </r>
@@ -238,6 +244,7 @@
         <sz val="11"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">為什麼交易者 </t>
     </r>
@@ -255,6 +262,7 @@
         <sz val="11"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">選擇</t>
     </r>
@@ -286,6 +294,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">چرا معامله گران فارکس </t>
     </r>
@@ -303,6 +312,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">را انتخاب می‌کنند</t>
     </r>
@@ -340,6 +350,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">عاماً</t>
     </r>
@@ -374,6 +385,7 @@
         <sz val="11"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -405,6 +417,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">۴۰</t>
     </r>
@@ -422,6 +435,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">سال</t>
     </r>
@@ -486,6 +500,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">منذ </t>
     </r>
@@ -511,6 +526,7 @@
         <sz val="11"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">自</t>
     </r>
@@ -528,6 +544,7 @@
         <sz val="11"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">起</t>
     </r>
@@ -571,6 +588,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">عاماً</t>
     </r>
@@ -605,6 +623,7 @@
         <sz val="11"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -636,6 +655,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">۲۰</t>
     </r>
@@ -653,6 +673,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">سال</t>
     </r>
@@ -668,6 +689,33 @@
   </si>
   <si>
     <t xml:space="preserve">20&lt;span&gt;Jahre&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Home] page 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Home] page 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Home] page 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Home] page 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Home] page 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Home] page 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Home] page 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Home] page 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Home] page 10</t>
   </si>
 </sst>
 </file>
@@ -682,6 +730,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -721,12 +770,14 @@
       <sz val="11"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -754,6 +805,7 @@
       <sz val="11"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -991,15 +1043,15 @@
   </sheetPr>
   <dimension ref="A1:AA65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="3" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="13" min="3" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,4 +2666,584 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="13" min="3" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="13.6326530612245"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>